--- a/Systemnahe-Programmierung/Debug - NASM und DOS-Box - Anleitung.xlsx
+++ b/Systemnahe-Programmierung/Debug - NASM und DOS-Box - Anleitung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Studium\Systemnahe-Programmierung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C475EA0B-869B-4D6A-B536-4FE0BE3FACD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118460EC-69E1-44F5-99A4-71D2CE355160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13008" yWindow="2136" windowWidth="17256" windowHeight="8892" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEBUG-Reg-op Zeichenausgabe" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="144">
   <si>
     <t>Handling der Vorgehensweise der NASM-Assemblierung und Debugging innerhalb der DOS-Box</t>
   </si>
@@ -531,6 +531,39 @@
   </si>
   <si>
     <t>Register-Inhalt anzeigen</t>
+  </si>
+  <si>
+    <t>mov bl,al</t>
+  </si>
+  <si>
+    <t>sub bl,30</t>
+  </si>
+  <si>
+    <t>sub al,30</t>
+  </si>
+  <si>
+    <t>add al,bl</t>
+  </si>
+  <si>
+    <t>add dl,30</t>
+  </si>
+  <si>
+    <t>Übung</t>
+  </si>
+  <si>
+    <t>Geben Sie einen Großbuchstaben ein (ohne Echo)</t>
+  </si>
+  <si>
+    <t>Zeigen Sie den eingegeben Buchstabn</t>
+  </si>
+  <si>
+    <t>Gebe die nächsten 3 Buchstaben aus, sodass jeder Buchstabe einen Abstand 2 zum vorherigen hat</t>
+  </si>
+  <si>
+    <t>int 21</t>
+  </si>
+  <si>
+    <t>add dl,2</t>
   </si>
 </sst>
 </file>
@@ -1206,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E547F4-D8AA-42E0-ACD9-F1BB73B50C46}">
   <dimension ref="A2:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
@@ -1612,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C15A9B-246B-4A79-B19C-B0E883A8EA92}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -1934,7 +1967,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="23" t="s">
         <v>92</v>
       </c>
@@ -1944,7 +1977,7 @@
       <c r="E49" s="24"/>
       <c r="F49" s="25"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -1954,24 +1987,33 @@
       <c r="H50" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J50" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J51" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J52" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>24</v>
       </c>
@@ -1981,45 +2023,151 @@
       <c r="H53" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J53" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J54" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J55" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J56" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J57" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>102</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J59" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J60" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J68" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J69" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J70" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J71" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J72" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J73" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J74" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J75" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
